--- a/data_input/CV036_Aug17_metadata.xlsx
+++ b/data_input/CV036_Aug17_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/GLab Dropbox/GLab_team/Projects/2020_SARSCOV2/consensus_genomes/temp/COVIDSeq/CV036/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Google Drive/R Directory/Grubaugh Lab/GISAID_submission/data_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD709FF-AF92-6E47-A701-B741594B3E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0160B2-1ECC-B14A-B59E-A3B85A4196E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21700" yWindow="-1920" windowWidth="19420" windowHeight="20000" xr2:uid="{66FBF9E7-A1D7-4188-B9A1-CD03156D57F2}"/>
+    <workbookView xWindow="-27340" yWindow="-1920" windowWidth="19420" windowHeight="19920" xr2:uid="{66FBF9E7-A1D7-4188-B9A1-CD03156D57F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,9 +795,6 @@
     <t>Yale-7445</t>
   </si>
   <si>
-    <t>Murphy Medical Associates</t>
-  </si>
-  <si>
     <t>Yale-7446</t>
   </si>
   <si>
@@ -1432,6 +1429,9 @@
   </si>
   <si>
     <t>% genome</t>
+  </si>
+  <si>
+    <t>Murphy Medical Association</t>
   </si>
 </sst>
 </file>
@@ -1454,29 +1454,34 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF4285F4"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="4"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3845,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E86632-0BAA-4063-B42C-F8BA0698F41B}">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3857,35 +3862,36 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8525,7 +8531,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>248</v>
+        <v>460</v>
       </c>
       <c r="D163" s="3">
         <v>44393</v>
@@ -8546,13 +8552,13 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>248</v>
+        <v>460</v>
       </c>
       <c r="D164" s="3">
         <v>44396</v>
@@ -8573,13 +8579,13 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>248</v>
+        <v>460</v>
       </c>
       <c r="D165" s="3">
         <v>44407</v>
@@ -8600,13 +8606,13 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D166" s="3">
         <v>44410</v>
@@ -8627,13 +8633,13 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D167" s="3">
         <v>44411</v>
@@ -8654,13 +8660,13 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D168" s="3">
         <v>44411</v>
@@ -8681,13 +8687,13 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D169" s="3">
         <v>44411</v>
@@ -8708,13 +8714,13 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D170" s="3">
         <v>44411</v>
@@ -8735,13 +8741,13 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D171" s="3">
         <v>44412</v>
@@ -8762,13 +8768,13 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D172" s="3">
         <v>44412</v>
@@ -8789,13 +8795,13 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D173" s="3">
         <v>44412</v>
@@ -8816,13 +8822,13 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D174" s="3">
         <v>44412</v>
@@ -8843,13 +8849,13 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D175" s="3">
         <v>44413</v>
@@ -8870,13 +8876,13 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D176" s="3">
         <v>44414</v>
@@ -8897,13 +8903,13 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D177" s="3">
         <v>44414</v>
@@ -8924,13 +8930,13 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D178" s="3">
         <v>44414</v>
@@ -8948,6 +8954,9 @@
       <c r="I178" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H179" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I178">
@@ -9024,21 +9033,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
         <v>274</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>275</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>276</v>
-      </c>
-      <c r="D1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2">
         <v>867</v>
@@ -9052,7 +9061,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3">
         <v>2551</v>
@@ -9066,7 +9075,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4">
         <v>118</v>
@@ -9080,7 +9089,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>8684</v>
@@ -9094,7 +9103,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -9108,7 +9117,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7">
         <v>289</v>
@@ -9122,7 +9131,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8">
         <v>69</v>
@@ -9136,7 +9145,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9">
         <v>84</v>
@@ -9150,7 +9159,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10">
         <v>79</v>
@@ -9164,7 +9173,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11">
         <v>722</v>
@@ -9178,7 +9187,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12">
         <v>318</v>
@@ -9192,7 +9201,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13">
         <v>79</v>
@@ -9206,7 +9215,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14">
         <v>42</v>
@@ -9220,7 +9229,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15">
         <v>599</v>
@@ -9234,7 +9243,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -9248,7 +9257,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17">
         <v>441</v>
@@ -9262,7 +9271,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B18">
         <v>33</v>
@@ -9276,7 +9285,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19">
         <v>48</v>
@@ -9290,7 +9299,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B20">
         <v>23608</v>
@@ -9304,7 +9313,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>25462</v>
@@ -9318,7 +9327,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22">
         <v>290</v>
@@ -9332,7 +9341,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B23">
         <v>6981</v>
@@ -9346,7 +9355,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B24">
         <v>28185</v>
@@ -9360,7 +9369,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B25">
         <v>82</v>
@@ -9374,7 +9383,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26">
         <v>259</v>
@@ -9388,7 +9397,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B27">
         <v>142</v>
@@ -9402,7 +9411,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28">
         <v>37</v>
@@ -9416,7 +9425,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29">
         <v>37</v>
@@ -9430,7 +9439,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30">
         <v>143</v>
@@ -9444,7 +9453,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31">
         <v>74</v>
@@ -9458,7 +9467,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B32">
         <v>258</v>
@@ -9472,7 +9481,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33">
         <v>119</v>
@@ -9486,7 +9495,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34">
         <v>78</v>
@@ -9500,7 +9509,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35">
         <v>105</v>
@@ -9514,7 +9523,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36">
         <v>579</v>
@@ -9528,7 +9537,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37">
         <v>118</v>
@@ -9542,7 +9551,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B38">
         <v>71</v>
@@ -9556,7 +9565,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B39">
         <v>120</v>
@@ -9570,7 +9579,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40">
         <v>48</v>
@@ -9584,7 +9593,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41">
         <v>91</v>
@@ -9598,7 +9607,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42">
         <v>19</v>
@@ -9612,7 +9621,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B43">
         <v>97</v>
@@ -9626,7 +9635,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44">
         <v>118</v>
@@ -9640,7 +9649,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -9654,7 +9663,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46">
         <v>152</v>
@@ -9668,7 +9677,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47">
         <v>120</v>
@@ -9682,7 +9691,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48">
         <v>68</v>
@@ -9696,7 +9705,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B49">
         <v>27866</v>
@@ -9710,7 +9719,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50">
         <v>73</v>
@@ -9724,7 +9733,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51">
         <v>8452</v>
@@ -9738,7 +9747,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B52">
         <v>128</v>
@@ -9752,7 +9761,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -9766,7 +9775,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B54">
         <v>29317</v>
@@ -9780,7 +9789,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55">
         <v>52</v>
@@ -9794,7 +9803,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B56">
         <v>172</v>
@@ -9808,7 +9817,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B57">
         <v>478</v>
@@ -9822,7 +9831,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B58">
         <v>86</v>
@@ -9836,7 +9845,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59">
         <v>28185</v>
@@ -9850,7 +9859,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B60">
         <v>15</v>
@@ -9864,7 +9873,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B61">
         <v>85</v>
@@ -9878,7 +9887,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B62">
         <v>71</v>
@@ -9892,7 +9901,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B63">
         <v>213</v>
@@ -9906,7 +9915,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B64">
         <v>367</v>
@@ -9920,7 +9929,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B65">
         <v>44</v>
@@ -9934,7 +9943,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66">
         <v>86</v>
@@ -9948,7 +9957,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67">
         <v>22475</v>
@@ -9962,7 +9971,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B68">
         <v>54</v>
@@ -9976,7 +9985,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69">
         <v>105</v>
@@ -9990,7 +9999,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70">
         <v>72</v>
@@ -10004,7 +10013,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B71">
         <v>82</v>
@@ -10018,7 +10027,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B72">
         <v>115</v>
@@ -10032,7 +10041,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B73">
         <v>44</v>
@@ -10046,7 +10055,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B74">
         <v>99</v>
@@ -10060,7 +10069,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B75">
         <v>3623</v>
@@ -10074,7 +10083,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B76">
         <v>3672</v>
@@ -10088,7 +10097,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B77">
         <v>28245</v>
@@ -10102,7 +10111,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B78">
         <v>17395</v>
@@ -10116,7 +10125,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79">
         <v>17167</v>
@@ -10130,7 +10139,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B80">
         <v>13399</v>
@@ -10144,7 +10153,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B81">
         <v>106</v>
@@ -10158,7 +10167,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B82">
         <v>119</v>
@@ -10172,7 +10181,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B83">
         <v>579</v>
@@ -10186,7 +10195,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B84">
         <v>346</v>
@@ -10200,7 +10209,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B85">
         <v>258</v>
@@ -10214,7 +10223,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B86">
         <v>24</v>
@@ -10228,7 +10237,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B87">
         <v>72</v>
@@ -10242,7 +10251,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B88">
         <v>33</v>
@@ -10256,7 +10265,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B89">
         <v>17575</v>
@@ -10270,7 +10279,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B90">
         <v>106</v>
@@ -10284,7 +10293,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B91">
         <v>39</v>
@@ -10298,7 +10307,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B92">
         <v>119</v>
@@ -10312,7 +10321,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B93">
         <v>51</v>
@@ -10326,7 +10335,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B94">
         <v>70</v>
@@ -10340,7 +10349,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B95">
         <v>239</v>
@@ -10354,7 +10363,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B96">
         <v>78</v>
@@ -10368,7 +10377,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B97">
         <v>91</v>
@@ -10382,7 +10391,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B98">
         <v>758</v>
@@ -10396,7 +10405,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B99">
         <v>102</v>
@@ -10410,7 +10419,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B100">
         <v>279</v>
@@ -10424,7 +10433,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B101">
         <v>255</v>
@@ -10438,7 +10447,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B102">
         <v>204</v>
@@ -10452,7 +10461,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B103">
         <v>43</v>
@@ -10466,7 +10475,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B104">
         <v>84</v>
@@ -10480,7 +10489,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B105">
         <v>593</v>
@@ -10494,7 +10503,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B106">
         <v>155</v>
@@ -10508,7 +10517,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -10522,7 +10531,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B108">
         <v>387</v>
@@ -10536,7 +10545,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B109">
         <v>173</v>
@@ -10550,7 +10559,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B110">
         <v>356</v>
@@ -10564,7 +10573,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B111">
         <v>74</v>
@@ -10578,7 +10587,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B112">
         <v>40</v>
@@ -10592,7 +10601,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B113">
         <v>242</v>
@@ -10606,7 +10615,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B114">
         <v>33</v>
@@ -10620,7 +10629,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B115">
         <v>364</v>
@@ -10634,7 +10643,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B116">
         <v>240</v>
@@ -10648,7 +10657,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B117">
         <v>118</v>
@@ -10662,7 +10671,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B118">
         <v>41</v>
@@ -10676,7 +10685,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B119">
         <v>410</v>
@@ -10690,7 +10699,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B120">
         <v>36</v>
@@ -10704,7 +10713,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B121">
         <v>218</v>
@@ -10718,7 +10727,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B122">
         <v>247</v>
@@ -10732,7 +10741,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B123">
         <v>77</v>
@@ -10746,7 +10755,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B124">
         <v>289</v>
@@ -10760,7 +10769,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B125">
         <v>291</v>
@@ -10774,7 +10783,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B126">
         <v>340</v>
@@ -10788,7 +10797,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B127">
         <v>278</v>
@@ -10802,7 +10811,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B128">
         <v>611</v>
@@ -10816,7 +10825,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B129">
         <v>453</v>
@@ -10830,7 +10839,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B130">
         <v>2212</v>
@@ -10844,7 +10853,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B131">
         <v>756</v>
@@ -10858,7 +10867,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B132">
         <v>356</v>
@@ -10872,7 +10881,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B133">
         <v>341</v>
@@ -10886,7 +10895,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B134">
         <v>343</v>
@@ -10900,7 +10909,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B135">
         <v>172</v>
@@ -10914,7 +10923,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B136">
         <v>527</v>
@@ -10928,7 +10937,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B137">
         <v>389</v>
@@ -10942,7 +10951,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B138">
         <v>82</v>
@@ -10956,7 +10965,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B139">
         <v>69</v>
@@ -10970,7 +10979,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B140">
         <v>112</v>
@@ -10984,7 +10993,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B141">
         <v>70</v>
@@ -10998,7 +11007,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B142">
         <v>253</v>
@@ -11012,7 +11021,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B143">
         <v>409</v>
@@ -11026,7 +11035,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B144">
         <v>341</v>
@@ -11040,7 +11049,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B145">
         <v>67</v>
@@ -11054,7 +11063,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B146">
         <v>115</v>
@@ -11068,7 +11077,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B147">
         <v>91</v>
@@ -11082,7 +11091,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B148">
         <v>35</v>
@@ -11096,7 +11105,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B149">
         <v>503</v>
@@ -11110,7 +11119,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B150">
         <v>72</v>
@@ -11124,7 +11133,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B151">
         <v>336</v>
@@ -11138,7 +11147,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B152">
         <v>77</v>
@@ -11152,7 +11161,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B153">
         <v>467</v>
@@ -11166,7 +11175,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B154">
         <v>74</v>
@@ -11180,7 +11189,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B155">
         <v>48</v>
@@ -11194,7 +11203,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B156">
         <v>283</v>
@@ -11208,7 +11217,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B157">
         <v>73</v>
@@ -11222,7 +11231,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B158">
         <v>135</v>
@@ -11236,7 +11245,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B159">
         <v>293</v>
@@ -11250,7 +11259,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B160">
         <v>72</v>
@@ -11264,7 +11273,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B161">
         <v>115</v>
@@ -11278,7 +11287,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B162">
         <v>357</v>
@@ -11292,7 +11301,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B163">
         <v>15967</v>
@@ -11306,7 +11315,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B164">
         <v>169</v>
@@ -11320,7 +11329,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B165">
         <v>390</v>
@@ -11334,7 +11343,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B166">
         <v>357</v>
@@ -11348,7 +11357,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B167">
         <v>81</v>
@@ -11362,7 +11371,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B168">
         <v>347</v>
@@ -11376,7 +11385,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B169">
         <v>313</v>
@@ -11390,7 +11399,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B170">
         <v>278</v>
@@ -11404,7 +11413,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B171">
         <v>348</v>
@@ -11418,7 +11427,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B172">
         <v>69</v>
@@ -11432,7 +11441,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B173">
         <v>376</v>
@@ -11446,7 +11455,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B174">
         <v>381</v>
@@ -11460,7 +11469,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B175">
         <v>47</v>
@@ -11474,7 +11483,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B176">
         <v>77</v>
@@ -11488,7 +11497,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B177">
         <v>71</v>
@@ -11502,7 +11511,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B178">
         <v>397</v>
@@ -11516,7 +11525,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B179">
         <v>307</v>
@@ -11555,33 +11564,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" t="s">
         <v>456</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>457</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>458</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>459</v>
       </c>
-      <c r="E1" t="s">
-        <v>460</v>
-      </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>8684</v>
@@ -11608,7 +11617,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16">
         <v>8452</v>
@@ -11635,7 +11644,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17">
         <v>6981</v>
@@ -11662,7 +11671,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B18">
         <v>3672</v>
@@ -11689,7 +11698,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19">
         <v>3623</v>
@@ -11716,7 +11725,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20">
         <v>2551</v>
@@ -11743,7 +11752,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B21">
         <v>2212</v>
@@ -11770,7 +11779,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22">
         <v>867</v>
@@ -11794,7 +11803,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B23">
         <v>758</v>
@@ -11821,7 +11830,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B24">
         <v>756</v>
@@ -11848,7 +11857,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25">
         <v>722</v>
@@ -11875,7 +11884,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B26">
         <v>611</v>
@@ -11902,7 +11911,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27">
         <v>599</v>
@@ -11929,7 +11938,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B28">
         <v>593</v>
@@ -11956,7 +11965,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B29">
         <v>579</v>
@@ -11983,7 +11992,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B30">
         <v>579</v>
@@ -12010,7 +12019,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B31">
         <v>527</v>
@@ -12037,7 +12046,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B32">
         <v>503</v>
@@ -12064,7 +12073,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33">
         <v>478</v>
@@ -12091,7 +12100,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B34">
         <v>467</v>
@@ -12118,7 +12127,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B35">
         <v>453</v>
@@ -12145,7 +12154,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36">
         <v>441</v>
@@ -12172,7 +12181,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B37">
         <v>410</v>
@@ -12199,7 +12208,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B38">
         <v>409</v>
@@ -12226,7 +12235,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B39">
         <v>397</v>
@@ -12242,7 +12251,7 @@
         <v>98.668589999999995</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -12253,7 +12262,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B40">
         <v>390</v>
@@ -12269,7 +12278,7 @@
         <v>98.694999999999993</v>
       </c>
       <c r="F40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G40">
         <v>27.547450000000001</v>
@@ -12280,7 +12289,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B41">
         <v>389</v>
@@ -12307,7 +12316,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B42">
         <v>387</v>
@@ -12334,7 +12343,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B43">
         <v>381</v>
@@ -12350,7 +12359,7 @@
         <v>98.724729999999994</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -12361,7 +12370,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B44">
         <v>376</v>
@@ -12377,7 +12386,7 @@
         <v>98.741839999999996</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -12388,7 +12397,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B45">
         <v>367</v>
@@ -12415,7 +12424,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46">
         <v>364</v>
@@ -12442,7 +12451,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B47">
         <v>357</v>
@@ -12458,7 +12467,7 @@
         <v>98.804060000000007</v>
       </c>
       <c r="F47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G47">
         <v>32.05059</v>
@@ -12469,7 +12478,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48">
         <v>357</v>
@@ -12496,7 +12505,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B49">
         <v>356</v>
@@ -12523,7 +12532,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B50">
         <v>356</v>
@@ -12550,7 +12559,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51">
         <v>348</v>
@@ -12566,7 +12575,7 @@
         <v>98.834289999999996</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -12577,7 +12586,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B52">
         <v>347</v>
@@ -12593,7 +12602,7 @@
         <v>98.838999999999999</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -12604,7 +12613,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B53">
         <v>346</v>
@@ -12631,7 +12640,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B54">
         <v>343</v>
@@ -12658,7 +12667,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B55">
         <v>341</v>
@@ -12685,7 +12694,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B56">
         <v>341</v>
@@ -12712,7 +12721,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57">
         <v>340</v>
@@ -12739,7 +12748,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58">
         <v>336</v>
@@ -12766,7 +12775,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B59">
         <v>318</v>
@@ -12793,7 +12802,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B60">
         <v>313</v>
@@ -12809,7 +12818,7 @@
         <v>98.952579999999998</v>
       </c>
       <c r="F60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -12820,7 +12829,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B61">
         <v>307</v>
@@ -12836,7 +12845,7 @@
         <v>98.971040000000002</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -12847,7 +12856,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B62">
         <v>293</v>
@@ -12874,7 +12883,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B63">
         <v>291</v>
@@ -12901,7 +12910,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64">
         <v>289</v>
@@ -12928,7 +12937,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B65">
         <v>290</v>
@@ -12955,7 +12964,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B66">
         <v>289</v>
@@ -12982,7 +12991,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B67">
         <v>283</v>
@@ -13009,7 +13018,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B68">
         <v>279</v>
@@ -13036,7 +13045,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B69">
         <v>278</v>
@@ -13052,7 +13061,7 @@
         <v>99.069550000000007</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -13063,7 +13072,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B70">
         <v>278</v>
@@ -13090,7 +13099,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B71">
         <v>259</v>
@@ -13117,7 +13126,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B72">
         <v>258</v>
@@ -13144,7 +13153,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B73">
         <v>258</v>
@@ -13171,7 +13180,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74">
         <v>255</v>
@@ -13198,7 +13207,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B75">
         <v>253</v>
@@ -13225,7 +13234,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B76">
         <v>247</v>
@@ -13252,7 +13261,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B77">
         <v>242</v>
@@ -13279,7 +13288,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78">
         <v>240</v>
@@ -13306,7 +13315,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B79">
         <v>239</v>
@@ -13333,7 +13342,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80">
         <v>218</v>
@@ -13360,7 +13369,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B81">
         <v>213</v>
@@ -13387,7 +13396,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B82">
         <v>204</v>
@@ -13414,7 +13423,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B83">
         <v>173</v>
@@ -13441,7 +13450,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B84">
         <v>172</v>
@@ -13468,7 +13477,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B85">
         <v>172</v>
@@ -13495,7 +13504,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B86">
         <v>169</v>
@@ -13522,7 +13531,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B87">
         <v>155</v>
@@ -13549,7 +13558,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B88">
         <v>152</v>
@@ -13576,7 +13585,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89">
         <v>143</v>
@@ -13603,7 +13612,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B90">
         <v>142</v>
@@ -13630,7 +13639,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B91">
         <v>135</v>
@@ -13657,7 +13666,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B92">
         <v>128</v>
@@ -13684,7 +13693,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B93">
         <v>120</v>
@@ -13711,7 +13720,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B94">
         <v>120</v>
@@ -13738,7 +13747,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B95">
         <v>119</v>
@@ -13765,7 +13774,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B96">
         <v>119</v>
@@ -13792,7 +13801,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B97">
         <v>119</v>
@@ -13819,7 +13828,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B98">
         <v>118</v>
@@ -13846,7 +13855,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99">
         <v>118</v>
@@ -13873,7 +13882,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B100">
         <v>118</v>
@@ -13900,7 +13909,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B101">
         <v>118</v>
@@ -13927,7 +13936,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B102">
         <v>115</v>
@@ -13954,7 +13963,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B103">
         <v>115</v>
@@ -13981,7 +13990,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B104">
         <v>115</v>
@@ -14008,7 +14017,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B105">
         <v>112</v>
@@ -14035,7 +14044,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B106">
         <v>106</v>
@@ -14062,7 +14071,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -14089,7 +14098,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B108">
         <v>105</v>
@@ -14116,7 +14125,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -14143,7 +14152,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B110">
         <v>102</v>
@@ -14170,7 +14179,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B111">
         <v>99</v>
@@ -14197,7 +14206,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B112">
         <v>97</v>
@@ -14224,7 +14233,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B113">
         <v>91</v>
@@ -14251,7 +14260,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B114">
         <v>91</v>
@@ -14278,7 +14287,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B115">
         <v>91</v>
@@ -14305,7 +14314,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B116">
         <v>86</v>
@@ -14332,7 +14341,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B117">
         <v>86</v>
@@ -14359,7 +14368,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B118">
         <v>85</v>
@@ -14386,7 +14395,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B119">
         <v>84</v>
@@ -14413,7 +14422,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B120">
         <v>84</v>
@@ -14440,7 +14449,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B121">
         <v>82</v>
@@ -14467,7 +14476,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B122">
         <v>82</v>
@@ -14494,7 +14503,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B123">
         <v>82</v>
@@ -14521,7 +14530,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B124">
         <v>81</v>
@@ -14537,7 +14546,7 @@
         <v>99.728988000000001</v>
       </c>
       <c r="F124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -14548,7 +14557,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B125">
         <v>79</v>
@@ -14575,7 +14584,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B126">
         <v>79</v>
@@ -14602,7 +14611,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B127">
         <v>78</v>
@@ -14629,7 +14638,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B128">
         <v>78</v>
@@ -14656,7 +14665,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B129">
         <v>77</v>
@@ -14672,7 +14681,7 @@
         <v>99.742362999999997</v>
       </c>
       <c r="F129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -14683,7 +14692,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B130">
         <v>77</v>
@@ -14710,7 +14719,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B131">
         <v>77</v>
@@ -14737,7 +14746,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B132">
         <v>74</v>
@@ -14764,7 +14773,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B133">
         <v>74</v>
@@ -14791,7 +14800,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B134">
         <v>74</v>
@@ -14818,7 +14827,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B135">
         <v>73</v>
@@ -14845,7 +14854,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B136">
         <v>73</v>
@@ -14872,7 +14881,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B137">
         <v>72</v>
@@ -14899,7 +14908,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B138">
         <v>72</v>
@@ -14926,7 +14935,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B139">
         <v>72</v>
@@ -14953,7 +14962,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B140">
         <v>72</v>
@@ -14980,7 +14989,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B141">
         <v>71</v>
@@ -14996,7 +15005,7 @@
         <v>99.762184000000005</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -15007,7 +15016,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B142">
         <v>71</v>
@@ -15034,7 +15043,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B143">
         <v>71</v>
@@ -15061,7 +15070,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B144">
         <v>70</v>
@@ -15088,7 +15097,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B145">
         <v>70</v>
@@ -15115,7 +15124,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B146">
         <v>69</v>
@@ -15142,7 +15151,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B147">
         <v>69</v>
@@ -15158,7 +15167,7 @@
         <v>99.769137999999998</v>
       </c>
       <c r="F147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -15169,7 +15178,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B148">
         <v>69</v>
@@ -15196,7 +15205,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B149">
         <v>68</v>
@@ -15223,7 +15232,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B150">
         <v>67</v>
@@ -15250,7 +15259,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B151">
         <v>54</v>
@@ -15277,7 +15286,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B152">
         <v>52</v>
@@ -15304,7 +15313,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B153">
         <v>52</v>
@@ -15331,7 +15340,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B154">
         <v>51</v>
@@ -15358,7 +15367,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B155">
         <v>48</v>
@@ -15385,7 +15394,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B156">
         <v>48</v>
@@ -15412,7 +15421,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B157">
         <v>48</v>
@@ -15439,7 +15448,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B158">
         <v>47</v>
@@ -15455,7 +15464,7 @@
         <v>99.842752000000004</v>
       </c>
       <c r="F158" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -15466,7 +15475,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B159">
         <v>44</v>
@@ -15493,7 +15502,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B160">
         <v>44</v>
@@ -15520,7 +15529,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B161">
         <v>43</v>
@@ -15547,7 +15556,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B162">
         <v>42</v>
@@ -15574,7 +15583,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B163">
         <v>41</v>
@@ -15601,7 +15610,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B164">
         <v>40</v>
@@ -15628,7 +15637,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B165">
         <v>39</v>
@@ -15655,7 +15664,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B166">
         <v>37</v>
@@ -15682,7 +15691,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B167">
         <v>37</v>
@@ -15709,7 +15718,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B168">
         <v>36</v>
@@ -15736,7 +15745,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B169">
         <v>35</v>
@@ -15763,7 +15772,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B170">
         <v>33</v>
@@ -15790,7 +15799,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B171">
         <v>33</v>
@@ -15817,7 +15826,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B172">
         <v>33</v>
@@ -15844,7 +15853,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B173">
         <v>24</v>
@@ -15871,7 +15880,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174">
         <v>23</v>
@@ -15898,7 +15907,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B175">
         <v>19</v>
@@ -15910,7 +15919,7 @@
         <v>6.3721999999999997E-4</v>
       </c>
       <c r="E175">
-        <f t="shared" ref="E175:E206" si="5">100-D175*100</f>
+        <f t="shared" ref="E175:E179" si="5">100-D175*100</f>
         <v>99.936278000000001</v>
       </c>
       <c r="F175" t="s">
@@ -15925,7 +15934,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B176">
         <v>16</v>
@@ -15952,7 +15961,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B177">
         <v>15</v>
@@ -15979,7 +15988,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B178">
         <v>9</v>
@@ -16006,7 +16015,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -16055,33 +16064,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" t="s">
         <v>456</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>457</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>458</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>459</v>
       </c>
-      <c r="E1" t="s">
-        <v>460</v>
-      </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2">
         <v>23608</v>
@@ -16108,7 +16117,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3">
         <v>25462</v>
@@ -16135,7 +16144,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4">
         <v>28185</v>
@@ -16162,7 +16171,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5">
         <v>27866</v>
@@ -16189,7 +16198,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6">
         <v>29317</v>
@@ -16216,7 +16225,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7">
         <v>28185</v>
@@ -16243,7 +16252,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8">
         <v>22475</v>
@@ -16270,7 +16279,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9">
         <v>28245</v>
@@ -16297,7 +16306,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10">
         <v>17395</v>
@@ -16324,7 +16333,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B11">
         <v>17167</v>
@@ -16351,7 +16360,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B12">
         <v>13399</v>
@@ -16378,7 +16387,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13">
         <v>17575</v>
@@ -16405,7 +16414,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B14">
         <v>15967</v>
@@ -16453,20 +16462,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -16474,7 +16483,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -16482,7 +16491,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -16490,7 +16499,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -16498,7 +16507,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -16506,7 +16515,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -16514,7 +16523,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -16522,7 +16531,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -16530,7 +16539,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -16538,7 +16547,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -16546,7 +16555,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -16554,7 +16563,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -16562,7 +16571,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -16570,7 +16579,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -16578,7 +16587,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -16586,7 +16595,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -16594,7 +16603,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -16602,7 +16611,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -16610,7 +16619,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -16618,7 +16627,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -16626,7 +16635,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -16634,7 +16643,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -16642,7 +16651,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -16650,7 +16659,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -16658,7 +16667,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -16666,7 +16675,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -16674,7 +16683,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -16682,7 +16691,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -16690,7 +16699,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -16698,7 +16707,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -16706,7 +16715,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -16714,7 +16723,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -16722,7 +16731,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -16730,7 +16739,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -16738,7 +16747,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -16746,7 +16755,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -16754,7 +16763,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -16762,7 +16771,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -16770,7 +16779,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -16778,7 +16787,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
@@ -16786,7 +16795,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -16794,7 +16803,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
@@ -16802,7 +16811,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -16810,7 +16819,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -16818,7 +16827,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
         <v>92</v>
@@ -16826,7 +16835,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
@@ -16834,7 +16843,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
@@ -16842,7 +16851,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s">
         <v>162</v>
@@ -16850,7 +16859,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s">
         <v>99</v>
@@ -16858,7 +16867,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
@@ -16866,7 +16875,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s">
         <v>102</v>
@@ -16874,7 +16883,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
@@ -16882,7 +16891,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s">
         <v>104</v>
@@ -16890,7 +16899,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
         <v>105</v>
@@ -16898,7 +16907,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s">
         <v>106</v>
@@ -16906,7 +16915,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
@@ -16914,7 +16923,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s">
         <v>110</v>
@@ -16922,7 +16931,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
@@ -16930,7 +16939,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s">
         <v>113</v>
@@ -16938,7 +16947,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B62" t="s">
         <v>114</v>
@@ -16946,7 +16955,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s">
         <v>116</v>
@@ -16954,7 +16963,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B64" t="s">
         <v>118</v>
@@ -16962,7 +16971,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B65" t="s">
         <v>120</v>
@@ -16970,7 +16979,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
         <v>122</v>
@@ -16978,7 +16987,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67" t="s">
         <v>124</v>
@@ -16986,7 +16995,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s">
         <v>126</v>
@@ -16994,7 +17003,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s">
         <v>128</v>
@@ -17002,7 +17011,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70" t="s">
         <v>130</v>
@@ -17010,7 +17019,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s">
         <v>131</v>
@@ -17018,7 +17027,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B72" t="s">
         <v>132</v>
@@ -17026,7 +17035,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B73" t="s">
         <v>133</v>
@@ -17034,7 +17043,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s">
         <v>135</v>
@@ -17042,7 +17051,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B75" t="s">
         <v>137</v>
@@ -17050,7 +17059,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
@@ -17058,7 +17067,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B77" t="s">
         <v>139</v>
@@ -17066,7 +17075,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B78" t="s">
         <v>141</v>
@@ -17074,7 +17083,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79" t="s">
         <v>143</v>
@@ -17082,7 +17091,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B80" t="s">
         <v>145</v>
@@ -17090,7 +17099,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s">
         <v>146</v>
@@ -17098,7 +17107,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B82" t="s">
         <v>147</v>
@@ -17106,7 +17115,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B83" t="s">
         <v>148</v>
@@ -17114,7 +17123,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B84" t="s">
         <v>149</v>
@@ -17122,7 +17131,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s">
         <v>150</v>
@@ -17130,7 +17139,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s">
         <v>151</v>
@@ -17138,7 +17147,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s">
         <v>152</v>
@@ -17146,7 +17155,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s">
         <v>153</v>
@@ -17154,7 +17163,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s">
         <v>154</v>
@@ -17162,7 +17171,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B90" t="s">
         <v>155</v>
@@ -17170,7 +17179,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s">
         <v>156</v>
@@ -17178,7 +17187,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B92" t="s">
         <v>157</v>
@@ -17186,7 +17195,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B93" t="s">
         <v>158</v>
@@ -17194,7 +17203,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B94" t="s">
         <v>159</v>
@@ -17202,7 +17211,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s">
         <v>160</v>
@@ -17210,7 +17219,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B96" t="s">
         <v>161</v>
@@ -17218,7 +17227,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B97" t="s">
         <v>165</v>
@@ -17226,7 +17235,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B98" t="s">
         <v>166</v>
@@ -17234,7 +17243,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B99" t="s">
         <v>167</v>
@@ -17242,7 +17251,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B100" t="s">
         <v>168</v>
@@ -17250,7 +17259,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B101" t="s">
         <v>169</v>
@@ -17258,7 +17267,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B102" t="s">
         <v>171</v>
@@ -17266,7 +17275,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s">
         <v>173</v>
@@ -17274,7 +17283,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B104" t="s">
         <v>174</v>
@@ -17282,7 +17291,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B105" t="s">
         <v>175</v>
@@ -17290,7 +17299,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s">
         <v>176</v>
@@ -17298,7 +17307,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B107" t="s">
         <v>177</v>
@@ -17306,7 +17315,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B108" t="s">
         <v>178</v>
@@ -17314,7 +17323,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B109" t="s">
         <v>179</v>
@@ -17322,7 +17331,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B110" t="s">
         <v>180</v>
@@ -17330,7 +17339,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B111" t="s">
         <v>181</v>
@@ -17338,7 +17347,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B112" t="s">
         <v>182</v>
@@ -17346,7 +17355,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B113" t="s">
         <v>183</v>
@@ -17354,7 +17363,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B114" t="s">
         <v>184</v>
@@ -17362,7 +17371,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B115" t="s">
         <v>185</v>
@@ -17370,7 +17379,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B116" t="s">
         <v>187</v>
@@ -17378,7 +17387,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B117" t="s">
         <v>188</v>
@@ -17386,7 +17395,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B118" t="s">
         <v>189</v>
@@ -17394,7 +17403,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B119" t="s">
         <v>192</v>
@@ -17402,7 +17411,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B120" t="s">
         <v>193</v>
@@ -17410,7 +17419,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B121" t="s">
         <v>194</v>
@@ -17418,7 +17427,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B122" t="s">
         <v>197</v>
@@ -17426,7 +17435,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B123" t="s">
         <v>198</v>
@@ -17434,7 +17443,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B124" t="s">
         <v>199</v>
@@ -17442,7 +17451,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B125" t="s">
         <v>200</v>
@@ -17450,7 +17459,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B126" t="s">
         <v>201</v>
@@ -17458,7 +17467,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B127" t="s">
         <v>202</v>
@@ -17466,7 +17475,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B128" t="s">
         <v>203</v>
@@ -17474,7 +17483,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B129" t="s">
         <v>204</v>
@@ -17482,7 +17491,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B130" t="s">
         <v>205</v>
@@ -17490,7 +17499,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B131" t="s">
         <v>206</v>
@@ -17498,7 +17507,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B132" t="s">
         <v>207</v>
@@ -17506,7 +17515,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B133" t="s">
         <v>208</v>
@@ -17514,7 +17523,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B134" t="s">
         <v>209</v>
@@ -17522,7 +17531,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B135" t="s">
         <v>210</v>
@@ -17530,7 +17539,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B136" t="s">
         <v>211</v>
@@ -17538,7 +17547,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B137" t="s">
         <v>212</v>
@@ -17546,7 +17555,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B138" t="s">
         <v>213</v>
@@ -17554,7 +17563,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B139" t="s">
         <v>214</v>
@@ -17562,7 +17571,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B140" t="s">
         <v>215</v>
@@ -17570,7 +17579,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B141" t="s">
         <v>216</v>
@@ -17578,7 +17587,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s">
         <v>218</v>
@@ -17586,7 +17595,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s">
         <v>220</v>
@@ -17594,7 +17603,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s">
         <v>222</v>
@@ -17602,7 +17611,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B145" t="s">
         <v>223</v>
@@ -17610,7 +17619,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B146" t="s">
         <v>225</v>
@@ -17618,7 +17627,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B147" t="s">
         <v>226</v>
@@ -17626,7 +17635,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B148" t="s">
         <v>227</v>
@@ -17634,7 +17643,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B149" t="s">
         <v>228</v>
@@ -17642,7 +17651,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B150" t="s">
         <v>230</v>
@@ -17650,7 +17659,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B151" t="s">
         <v>231</v>
@@ -17658,7 +17667,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B152" t="s">
         <v>232</v>
@@ -17666,7 +17675,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B153" t="s">
         <v>234</v>
@@ -17674,7 +17683,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B154" t="s">
         <v>235</v>
@@ -17682,7 +17691,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B155" t="s">
         <v>236</v>
@@ -17690,7 +17699,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B156" t="s">
         <v>237</v>
@@ -17698,7 +17707,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B157" t="s">
         <v>239</v>
@@ -17706,7 +17715,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B158" t="s">
         <v>240</v>
@@ -17714,7 +17723,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B159" t="s">
         <v>241</v>
@@ -17722,7 +17731,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B160" t="s">
         <v>243</v>
@@ -17730,7 +17739,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B161" t="s">
         <v>244</v>
@@ -17738,7 +17747,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B162" t="s">
         <v>245</v>
@@ -17746,7 +17755,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B163" t="s">
         <v>246</v>
@@ -17754,7 +17763,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B164" t="s">
         <v>247</v>
@@ -17762,122 +17771,122 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B165" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B166" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B167" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B169" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B171" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B173" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B175" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B176" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B178" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B179" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
